--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -153,6 +153,9 @@
 2）增加一个上传背景图的按钮用户通过点击按钮上传一张自定义背景图片；</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
     <t>私信小纸条</t>
   </si>
   <si>
@@ -261,9 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve">Smilence1024 </t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>处理文章中logo是空的选项（定时）</t>
@@ -298,10 +298,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -319,6 +319,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -330,8 +344,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,67 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -413,59 +466,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -488,19 +488,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,163 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,71 +679,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -771,6 +706,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -779,153 +744,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,9 +1401,9 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1593,7 +1593,7 @@
         <v>42753</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="67.5" spans="1:13">
+    <row r="5" s="3" customFormat="1" ht="67.5" spans="1:14">
       <c r="A5" s="9"/>
       <c r="B5" s="15"/>
       <c r="C5" s="10" t="s">
@@ -1628,22 +1628,25 @@
       </c>
       <c r="M5" s="24">
         <v>42758</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="67.5" spans="1:13">
       <c r="A6" s="9"/>
       <c r="B6" s="15"/>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
@@ -1665,16 +1668,16 @@
       <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -1695,19 +1698,19 @@
     <row r="8" s="3" customFormat="1" ht="81" spans="1:13">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1727,19 +1730,19 @@
     <row r="9" s="3" customFormat="1" ht="27" spans="1:13">
       <c r="A9" s="9"/>
       <c r="B9" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1761,13 +1764,13 @@
       <c r="A10" s="9"/>
       <c r="B10" s="15"/>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>30</v>
@@ -1788,19 +1791,19 @@
     <row r="11" s="3" customFormat="1" ht="27" spans="1:13">
       <c r="A11" s="9"/>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>30</v>
@@ -1821,19 +1824,19 @@
     <row r="12" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A12" s="9"/>
       <c r="B12" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>22</v>
@@ -1854,19 +1857,19 @@
     <row r="13" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>30</v>
@@ -1887,19 +1890,19 @@
     <row r="14" s="3" customFormat="1" ht="54" spans="1:14">
       <c r="A14" s="9"/>
       <c r="B14" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -1911,10 +1914,10 @@
         <v>22</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="24">
         <v>42746</v>
@@ -1923,7 +1926,7 @@
         <v>42747</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="54" spans="1:13">
@@ -1951,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
@@ -1982,7 +1985,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>83</v>
@@ -1994,7 +1997,7 @@
         <v>42747</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="9390"/>
+    <workbookView windowWidth="15870" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="开发清单" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>YanceyYu</t>
+  </si>
+  <si>
+    <t>已投SIT</t>
   </si>
   <si>
     <t>随便看看</t>
@@ -125,6 +128,15 @@
     <t>TangPetty</t>
   </si>
   <si>
+    <t>2017/1/23 2017/2/15</t>
+  </si>
+  <si>
+    <t>预计2月15日完成</t>
+  </si>
+  <si>
+    <t>由于工作量大、逻辑比较复杂该需求进度延期到2月15日完成</t>
+  </si>
+  <si>
     <t>个人主页</t>
   </si>
   <si>
@@ -153,9 +165,6 @@
 2）增加一个上传背景图的按钮用户通过点击按钮上传一张自定义背景图片；</t>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>私信小纸条</t>
   </si>
   <si>
@@ -211,6 +220,9 @@
     <t>分享功能</t>
   </si>
   <si>
+    <t>分享收藏文章</t>
+  </si>
+  <si>
     <t>用户可以把云收藏上面的文章分享到各大社区</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
   </si>
   <si>
     <t>用户登录的时候可以选择QQ、微博、微信授权登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smilence1024 </t>
   </si>
   <si>
     <t>意见反馈</t>
@@ -263,9 +278,6 @@
     <t>优化</t>
   </si>
   <si>
-    <t xml:space="preserve">Smilence1024 </t>
-  </si>
-  <si>
     <t>处理文章中logo是空的选项（定时）</t>
   </si>
   <si>
@@ -288,6 +300,21 @@
   </si>
   <si>
     <t>ityouknow</t>
+  </si>
+  <si>
+    <t>更改图片</t>
+  </si>
+  <si>
+    <t>更改用户默认头像和网页标题logo</t>
+  </si>
+  <si>
+    <t>将原有的默认头像和网页标题logo改为新的</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>小</t>
   </si>
   <si>
     <t>备注：以上列表中出现15个字符以上内容均用“...”代替</t>
@@ -299,8 +326,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -319,21 +346,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,32 +364,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +388,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,20 +421,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,16 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +449,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +470,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -488,25 +515,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,60 +617,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -584,91 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,30 +706,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,6 +720,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,37 +792,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,148 +811,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,6 +968,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,7 +989,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,7 +1014,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -1008,9 +1038,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1398,22 +1425,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="9" width="9.125" style="1" customWidth="1"/>
     <col min="10" max="14" width="11" style="1" customWidth="1"/>
@@ -1423,72 +1450,72 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:16">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1500,76 +1527,82 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="25">
         <v>42751</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="25">
         <v>42764</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="23"/>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" ht="202.5" spans="1:15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="24">
+      <c r="K3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="25">
         <v>42754</v>
       </c>
-      <c r="M3" s="24">
-        <v>42758</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="M3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
+    <row r="4" s="3" customFormat="1" ht="67.5" spans="1:14">
+      <c r="A4" s="10"/>
+      <c r="B4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>22</v>
@@ -1580,33 +1613,36 @@
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="24">
+      <c r="K4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="25">
         <v>42751</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="25">
         <v>42753</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="67.5" spans="1:14">
-      <c r="A5" s="9"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
-        <v>37</v>
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>22</v>
@@ -1617,36 +1653,36 @@
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="25">
         <v>42755</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="25">
         <v>42758</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10" t="s">
-        <v>42</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
@@ -1657,60 +1693,60 @@
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="94.5" spans="1:13">
-      <c r="A7" s="9"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="81" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1721,28 +1757,35 @@
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="25">
+        <v>42779</v>
+      </c>
+      <c r="M8" s="25">
+        <v>42783</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="27" spans="1:13">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>54</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1753,27 +1796,36 @@
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="K9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="25">
+        <v>42782</v>
+      </c>
+      <c r="M9" s="25">
+        <v>42786</v>
+      </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>57</v>
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1781,32 +1833,38 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="K10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="25">
+        <v>42786</v>
+      </c>
+      <c r="M10" s="25">
+        <v>42790</v>
+      </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:13">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>61</v>
+      <c r="A11" s="10"/>
+      <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>22</v>
@@ -1814,31 +1872,37 @@
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="25">
+        <v>42786</v>
+      </c>
+      <c r="M11" s="25">
+        <v>42790</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
+      <c r="A12" s="10"/>
+      <c r="B12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1847,62 +1911,74 @@
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="K12" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="25">
+        <v>42787</v>
+      </c>
+      <c r="M12" s="25">
+        <v>42790</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="L13" s="25">
+        <v>42779</v>
+      </c>
+      <c r="M13" s="25">
+        <v>42783</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="54" spans="1:14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>71</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -1913,67 +1989,76 @@
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="J14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="25">
         <v>42746</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="25">
         <v>42747</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="54" spans="1:13">
-      <c r="A15" s="9"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10" t="s">
-        <v>76</v>
+    <row r="15" s="3" customFormat="1" ht="54" spans="1:14">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="25">
+        <v>42773</v>
+      </c>
+      <c r="M15" s="25">
+        <v>42776</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="40.5" spans="1:14">
-      <c r="A16" s="9"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10" t="s">
-        <v>80</v>
+      <c r="A16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>22</v>
@@ -1984,84 +2069,126 @@
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="24">
+      <c r="J16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="25">
         <v>42747</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="25">
         <v>42747</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="18"/>
+    <row r="17" s="4" customFormat="1" ht="40.5" spans="1:14">
+      <c r="A17" s="10"/>
+      <c r="B17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="25">
+        <v>42772</v>
+      </c>
+      <c r="M17" s="25">
+        <v>42772</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+    <row r="18" spans="1:1">
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="A19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N16"/>
   <mergeCells count="6">
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A18:O20"/>
+    <mergeCell ref="A19:O21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8970"/>
+    <workbookView windowWidth="15870" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="开发清单" sheetId="1" r:id="rId1"/>
     <sheet name="功能详情" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发清单!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发清单!$A$1:$N$17</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>项目名称</t>
   </si>
@@ -100,7 +100,7 @@
     <t>YanceyYu</t>
   </si>
   <si>
-    <t>已投SIT</t>
+    <t>已投生产</t>
   </si>
   <si>
     <t>随便看看</t>
@@ -131,10 +131,7 @@
     <t>2017/1/23 2017/2/15</t>
   </si>
   <si>
-    <t>预计2月15日完成</t>
-  </si>
-  <si>
-    <t>由于工作量大、逻辑比较复杂该需求进度延期到2月15日完成</t>
+    <t>已投SIT</t>
   </si>
   <si>
     <t>个人主页</t>
@@ -317,7 +314,28 @@
     <t>小</t>
   </si>
   <si>
-    <t>备注：以上列表中出现15个字符以上内容均用“...”代替</t>
+    <t>更改左上角logo链接</t>
+  </si>
+  <si>
+    <t>更改用户登录后左上角logo链接</t>
+  </si>
+  <si>
+    <t>更改用户登录后左上角logo链接，点击链接跳转到首页</t>
+  </si>
+  <si>
+    <t>消息刷新</t>
+  </si>
+  <si>
+    <t>更改消息刷新频率为5s</t>
+  </si>
+  <si>
+    <t>异常统一处理</t>
+  </si>
+  <si>
+    <t>异常统一处理，修改为异常统一跳转到异常界面</t>
+  </si>
+  <si>
+    <t>备注：黄色为已投生产</t>
   </si>
 </sst>
 </file>
@@ -326,8 +344,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -343,6 +361,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -351,7 +377,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,46 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,15 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -463,9 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,22 +505,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,18 +527,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,109 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,55 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +730,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,11 +757,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -786,23 +825,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,152 +835,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -990,12 +1014,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1004,16 +1040,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,15 +1064,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1425,19 +1467,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" style="6" customWidth="1"/>
@@ -1492,10 +1534,10 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1518,45 +1560,45 @@
       <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="29">
         <v>42751</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="29">
         <v>42764</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="24"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" ht="202.5" spans="1:15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1568,122 +1610,120 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="31">
         <v>42754</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="67.5" spans="1:14">
       <c r="A4" s="10"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="29">
         <v>42751</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="29">
         <v>42753</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="67.5" spans="1:14">
       <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="29">
         <v>42755</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="29">
         <v>42758</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="67.5" spans="1:13">
       <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1693,27 +1733,27 @@
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="94.5" spans="1:13">
       <c r="A7" s="10"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
@@ -1724,30 +1764,30 @@
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="81" spans="1:13">
+    <row r="8" s="3" customFormat="1" ht="81" spans="1:14">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,36 +1797,39 @@
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="31">
         <v>42779</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="31">
         <v>42783</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="27" spans="1:13">
       <c r="A9" s="10"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1796,34 +1839,34 @@
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="31">
         <v>42782</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="31">
         <v>42786</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1833,35 +1876,35 @@
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="31">
         <v>42786</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="31">
         <v>42790</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:13">
       <c r="A11" s="10"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
@@ -1872,36 +1915,36 @@
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="25">
+      <c r="K11" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="31">
         <v>42786</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="31">
         <v>42790</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A12" s="10"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1911,35 +1954,35 @@
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="31">
         <v>42787</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="31">
         <v>42790</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A13" s="10"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1950,245 +1993,368 @@
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="25">
+      <c r="K13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="31">
         <v>42779</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="31">
         <v>42783</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="54" spans="1:14">
       <c r="A14" s="10"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="25">
+      <c r="K14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="29">
         <v>42746</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="29">
         <v>42747</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="54" spans="1:14">
       <c r="A15" s="10"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="25">
+        <v>78</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="29">
         <v>42773</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="29">
         <v>42776</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="40.5" spans="1:14">
       <c r="A16" s="10"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="G16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="25">
+      <c r="L16" s="29">
         <v>42747</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="29">
         <v>42747</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="40.5" spans="1:14">
       <c r="A17" s="10"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="18" t="s">
+      <c r="G17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="29">
+        <v>42772</v>
+      </c>
+      <c r="M17" s="29">
+        <v>42772</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="40.5" spans="1:14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="25">
-        <v>42772</v>
-      </c>
-      <c r="M17" s="25">
-        <v>42772</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="C18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="29">
+        <v>42786</v>
+      </c>
+      <c r="M18" s="29">
+        <v>42786</v>
+      </c>
+      <c r="N18" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="19"/>
+    <row r="19" s="4" customFormat="1" ht="27" spans="1:14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="29">
+        <v>42787</v>
+      </c>
+      <c r="M19" s="29">
+        <v>42787</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+    <row r="20" s="4" customFormat="1" ht="27" spans="1:13">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="31">
+        <v>42788</v>
+      </c>
+      <c r="M20" s="31">
+        <v>42790</v>
+      </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+    <row r="21" spans="1:1">
+      <c r="A21" s="25"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N16"/>
+  <autoFilter ref="A1:N17"/>
   <mergeCells count="6">
-    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A19:O21"/>
+    <mergeCell ref="A22:O24"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -11,7 +11,7 @@
     <sheet name="功能详情" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发清单!$A$1:$N$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发清单!$A$1:$N$20</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -361,38 +361,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +370,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,23 +391,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,7 +446,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,11 +468,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,16 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +499,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,187 +539,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,15 +730,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,17 +748,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,18 +787,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +807,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -835,148 +835,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1469,10 +1469,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2254,7 +2254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="27" spans="1:13">
+    <row r="20" s="4" customFormat="1" ht="27" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>97</v>
@@ -2291,6 +2291,9 @@
       </c>
       <c r="M20" s="31">
         <v>42790</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -2347,7 +2350,7 @@
       <c r="O24" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N17"/>
+  <autoFilter ref="A1:N20"/>
   <mergeCells count="6">
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="B2:B3"/>

--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -226,6 +226,9 @@
     <t>用户在文章列表通过点击文章下的分享按钮可以把云收藏上面的文章分享到各大社区。</t>
   </si>
   <si>
+    <t xml:space="preserve">Smilence1024 </t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
   </si>
   <si>
     <t>用户登录的时候可以选择QQ、微博、微信授权登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smilence1024 </t>
   </si>
   <si>
     <t>意见反馈</t>
@@ -362,7 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,10 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,55 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,7 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +430,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,14 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,61 +539,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,43 +701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,72 +720,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,11 +750,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,9 +807,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,30 +830,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,10 +838,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,133 +850,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,9 +1470,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1880,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="L10" s="31">
         <v>42786</v>
@@ -1892,19 +1892,19 @@
     <row r="11" s="3" customFormat="1" ht="27" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>31</v>
@@ -1919,7 +1919,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="L11" s="31">
         <v>42786</v>
@@ -1967,7 +1967,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="40.5" spans="1:13">
+    <row r="13" s="3" customFormat="1" ht="40.5" spans="1:14">
       <c r="A13" s="10"/>
       <c r="B13" s="19" t="s">
         <v>70</v>
@@ -1997,13 +1997,16 @@
         <v>24</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13" s="31">
         <v>42779</v>
       </c>
       <c r="M13" s="31">
         <v>42783</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="54" spans="1:14">
@@ -2036,7 +2039,7 @@
         <v>78</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14" s="29">
         <v>42746</v>
@@ -2076,7 +2079,7 @@
         <v>78</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L15" s="29">
         <v>42773</v>
@@ -2158,7 +2161,7 @@
         <v>78</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L17" s="29">
         <v>42772</v>
@@ -2200,7 +2203,7 @@
         <v>78</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L18" s="29">
         <v>42786</v>
@@ -2242,7 +2245,7 @@
         <v>78</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L19" s="29">
         <v>42787</v>
@@ -2284,7 +2287,7 @@
         <v>78</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L20" s="31">
         <v>42788</v>

--- a/design/favorites_2.0 开发计划.xlsx
+++ b/design/favorites_2.0 开发计划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>项目名称</t>
   </si>
@@ -185,6 +185,9 @@
 4）收藏到群组的文章只能群组内的成员有权限查看；</t>
   </si>
   <si>
+    <t>暂停开发</t>
+  </si>
+  <si>
     <t>个人设置</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
 3）设置为是的时候系统通过定时跑批把不能访问的文章删除；</t>
   </si>
   <si>
+    <t>是否投产待确认</t>
+  </si>
+  <si>
     <t>个人收藏</t>
   </si>
   <si>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>收藏文章的时候根据收藏文章的标题为用户智能推荐收藏夹。</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>分享功能</t>
@@ -361,33 +370,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,10 +385,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,21 +411,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +441,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -466,24 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,6 +476,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -511,8 +513,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,19 +542,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +656,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,157 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +745,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -753,15 +783,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,17 +811,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,152 +850,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1055,6 +1070,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1064,11 +1094,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1079,6 +1109,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1469,10 +1505,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1534,10 +1570,10 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1575,16 +1611,16 @@
       <c r="K2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="34">
         <v>42751</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="34">
         <v>42764</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="30"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" ht="202.5" spans="1:15">
       <c r="A3" s="10"/>
@@ -1613,19 +1649,19 @@
       <c r="J3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="36">
         <v>42754</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="30"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="67.5" spans="1:14">
       <c r="A4" s="10"/>
@@ -1659,10 +1695,10 @@
       <c r="K4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="34">
         <v>42751</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="34">
         <v>42753</v>
       </c>
       <c r="N4" s="21" t="s">
@@ -1699,10 +1735,10 @@
       <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="34">
         <v>42755</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="34">
         <v>42758</v>
       </c>
       <c r="N5" s="21" t="s">
@@ -1736,57 +1772,66 @@
       <c r="J6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="K6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="36">
+        <v>42796</v>
+      </c>
+      <c r="M6" s="36">
+        <v>42801</v>
+      </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="94.5" spans="1:13">
+    <row r="7" s="3" customFormat="1" ht="94.5" spans="1:14">
       <c r="A7" s="10"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="81" spans="1:14">
+    <row r="8" s="3" customFormat="1" ht="81" spans="1:15">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -1800,35 +1845,38 @@
       <c r="J8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="36">
         <v>42779</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="36">
         <v>42783</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="O8" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="27" spans="1:13">
+    <row r="9" s="3" customFormat="1" ht="27" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1842,30 +1890,33 @@
       <c r="J9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="36">
         <v>42782</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="36">
         <v>42786</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="40.5" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -1879,71 +1930,74 @@
       <c r="J10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="31">
+      <c r="K10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="36">
         <v>42786</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="36">
         <v>42790</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="27" spans="1:13">
+    <row r="11" s="3" customFormat="1" ht="27" spans="1:14">
       <c r="A11" s="10"/>
       <c r="B11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="H11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="38">
         <v>42786</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="38">
         <v>42790</v>
       </c>
+      <c r="N11" s="25" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="40.5" spans="1:13">
+    <row r="12" s="3" customFormat="1" ht="40.5" spans="1:14">
       <c r="A12" s="10"/>
       <c r="B12" s="19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>22</v>
@@ -1957,32 +2011,35 @@
       <c r="J12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="36">
         <v>42787</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="36">
         <v>42790</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="40.5" spans="1:14">
       <c r="A13" s="10"/>
       <c r="B13" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -1996,13 +2053,13 @@
       <c r="J13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="31">
+      <c r="K13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="36">
         <v>42779</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="36">
         <v>42783</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -2012,19 +2069,19 @@
     <row r="14" s="3" customFormat="1" ht="54" spans="1:14">
       <c r="A14" s="10"/>
       <c r="B14" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>22</v>
@@ -2036,15 +2093,15 @@
         <v>22</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="29">
+        <v>66</v>
+      </c>
+      <c r="L14" s="34">
         <v>42746</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="34">
         <v>42747</v>
       </c>
       <c r="N14" s="21" t="s">
@@ -2055,36 +2112,36 @@
       <c r="A15" s="10"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="K15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="29">
+        <v>66</v>
+      </c>
+      <c r="L15" s="34">
         <v>42773</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="34">
         <v>42776</v>
       </c>
       <c r="N15" s="21" t="s">
@@ -2095,16 +2152,16 @@
       <c r="A16" s="10"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>22</v>
@@ -2116,15 +2173,15 @@
         <v>22</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="29">
+        <v>89</v>
+      </c>
+      <c r="L16" s="34">
         <v>42747</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="34">
         <v>42747</v>
       </c>
       <c r="N16" s="21" t="s">
@@ -2134,39 +2191,39 @@
     <row r="17" s="4" customFormat="1" ht="40.5" spans="1:14">
       <c r="A17" s="10"/>
       <c r="B17" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="29">
+        <v>66</v>
+      </c>
+      <c r="L17" s="34">
         <v>42772</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="34">
         <v>42772</v>
       </c>
       <c r="N17" s="21" t="s">
@@ -2176,39 +2233,39 @@
     <row r="18" s="4" customFormat="1" ht="40.5" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="H18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="29">
+        <v>66</v>
+      </c>
+      <c r="L18" s="34">
         <v>42786</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="34">
         <v>42786</v>
       </c>
       <c r="N18" s="21" t="s">
@@ -2218,19 +2275,19 @@
     <row r="19" s="4" customFormat="1" ht="27" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>22</v>
@@ -2242,15 +2299,15 @@
         <v>22</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="29">
+        <v>66</v>
+      </c>
+      <c r="L19" s="34">
         <v>42787</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="34">
         <v>42787</v>
       </c>
       <c r="N19" s="21" t="s">
@@ -2260,19 +2317,19 @@
     <row r="20" s="4" customFormat="1" ht="27" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
@@ -2284,15 +2341,15 @@
         <v>22</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="31">
+        <v>81</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="36">
         <v>42788</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="36">
         <v>42790</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -2300,11 +2357,11 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="25"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="26" t="s">
-        <v>99</v>
+      <c r="A22" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
